--- a/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_24.xlsx
+++ b/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>S&amp;P500_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>S&amp;P500_CNY/USD</t>
   </si>
   <si>
-    <t>S&amp;P500_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>S&amp;P500_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>S&amp;P500_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OECD 소비자물가</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>S&amp;P500_두바이유가</t>
   </si>
   <si>
-    <t>S&amp;P500_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>S&amp;P500_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>S&amp;P500_미국 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>S&amp;P500_발틱 해운임지수</t>
   </si>
   <si>
-    <t>S&amp;P500_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>S&amp;P500_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>S&amp;P500_유로존 Core CPI</t>
   </si>
   <si>
-    <t>S&amp;P500_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>S&amp;P500_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>S&amp;P500_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>S&amp;P500_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>S&amp;P500_일본 ESI</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>S&amp;P500_중국 M1 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>S&amp;P500_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>S&amp;P500_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,918 +1893,768 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -2894,28 +2669,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2924,190 +2699,190 @@
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BZ3" t="n">
         <v>2</v>
       </c>
-      <c r="BK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3</v>
-      </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
@@ -3116,79 +2891,79 @@
         <v>3</v>
       </c>
       <c r="CD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
         <v>3</v>
       </c>
       <c r="CF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CT3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
         <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -3200,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -3212,70 +2987,70 @@
         <v>2</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
         <v>2</v>
       </c>
-      <c r="DU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
@@ -3284,262 +3059,262 @@
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>2</v>
       </c>
-      <c r="EJ3" t="n">
-        <v>3</v>
-      </c>
       <c r="EK3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
       <c r="ER3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="EW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" t="n">
         <v>2</v>
       </c>
-      <c r="ET3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="FL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
+      <c r="FN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FO3" t="n">
         <v>2</v>
       </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>3</v>
-      </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
         <v>2</v>
       </c>
       <c r="FR3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FV3" t="n">
         <v>3</v>
       </c>
       <c r="FW3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
         <v>2</v>
       </c>
       <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG3" t="n">
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
         <v>2</v>
       </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HP3" t="n">
         <v>0</v>
@@ -3548,25 +3323,25 @@
         <v>0</v>
       </c>
       <c r="HR3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HT3" t="n">
         <v>3</v>
       </c>
       <c r="HU3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HW3" t="n">
         <v>3</v>
       </c>
       <c r="HX3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HY3" t="n">
         <v>3</v>
@@ -3575,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="IA3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
         <v>3</v>
@@ -3584,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="ID3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IG3" t="n">
         <v>3</v>
@@ -3602,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IL3" t="n">
         <v>2</v>
@@ -3614,915 +3389,765 @@
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9670416500099243</v>
+        <v>-0.9460970615484218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9446146723293368</v>
+        <v>0.967870503678438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9462262878594521</v>
+        <v>0.6650525614839053</v>
       </c>
       <c r="E4" t="n">
-        <v>0.882863756966331</v>
+        <v>0.8753421455804002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6550086123002047</v>
+        <v>0.3514876587190721</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4982076299974303</v>
+        <v>-0.6696205943943452</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9794900515183547</v>
+        <v>0.9648089891188267</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9506640383298187</v>
+        <v>0.9159680562921637</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9645053016751052</v>
+        <v>0.5755458169543983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9779030219419402</v>
+        <v>-0.2292650139921047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9711209962646026</v>
+        <v>0.3230567740114787</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9099991850943454</v>
+        <v>0.9526753845200557</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9735748530928738</v>
+        <v>-0.7093812729587617</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9325012021230166</v>
+        <v>0.9572837303129746</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4036375829748149</v>
+        <v>0.9676579392333975</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.535155544274723</v>
+        <v>0.8997799892363005</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8112829264510033</v>
+        <v>0.5234560983597724</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9554979855142985</v>
+        <v>0.6881946589442085</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8228958571415004</v>
+        <v>-0.6607094162422422</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9529162662083218</v>
+        <v>0.8431731776470919</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9619992733827446</v>
+        <v>0.3710225413515697</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9090219554001905</v>
+        <v>0.8793707237662506</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4933164116913944</v>
+        <v>0.8043788641760121</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6713642611395719</v>
+        <v>-0.5023955218620676</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6160983141985863</v>
+        <v>0.8459100703258554</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8855827602193215</v>
+        <v>0.657481771507205</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8192136733150167</v>
+        <v>0.8466997039911202</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9217504523008987</v>
+        <v>0.4768463472721952</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8451927882333878</v>
+        <v>0.89219030190945</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.2704382994674736</v>
+        <v>0.7194272300071258</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9422877929300316</v>
+        <v>0.8306625901528298</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6799482358183385</v>
+        <v>0.5563151159253955</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9031189505690336</v>
+        <v>0.4182113857837619</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5488532478307324</v>
+        <v>0.930990409187844</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.935283470401072</v>
+        <v>-0.1623584274115014</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7383876017876579</v>
+        <v>0.9049971471012321</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7819005843344534</v>
+        <v>-0.1425055426880001</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6462973769256765</v>
+        <v>-0.8637692459016375</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.4521124097491717</v>
+        <v>-0.6647245932225798</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9473511708624482</v>
+        <v>0.945668299468073</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.4219473561217623</v>
+        <v>-0.1578744381385007</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9129773373418203</v>
+        <v>-0.7076517592790555</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.372415977937511</v>
+        <v>-0.3665070864321364</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.850324079694972</v>
+        <v>0.9461921482851426</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.6974875900849439</v>
+        <v>0.9880746970904438</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.964939731632544</v>
+        <v>0.994115010973404</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.07747517074419742</v>
+        <v>0.9431518641563809</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7898589836627744</v>
+        <v>0.9197889817678091</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6590418706422523</v>
+        <v>0.9469997547947736</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9795249248631274</v>
+        <v>0.9932462073026325</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9954714937539033</v>
+        <v>0.994462099352269</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.995697198430611</v>
+        <v>0.9475032017768286</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9726039086751802</v>
+        <v>0.9702343196908535</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.977717295693335</v>
+        <v>0.9003466751901374</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.981000048823253</v>
+        <v>0.7853338402034076</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9964193582290315</v>
+        <v>0.2686664375902761</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9941126749731787</v>
+        <v>0.8118393865405628</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.973948966849246</v>
+        <v>-0.4464134569032601</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.9623139763587071</v>
+        <v>0.7507959802537907</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9069895568372182</v>
+        <v>-0.1726733551784784</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8657374303109121</v>
+        <v>0.8864576465707323</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.6482726144055735</v>
+        <v>0.9011316513288395</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.4887046733896882</v>
+        <v>-0.3685461015864398</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9046257974032428</v>
+        <v>-0.8168918561323263</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8580648677523269</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.974297702401514</v>
+        <v>0.8929575624662565</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.4552215588410491</v>
+        <v>0.9827162857204569</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8282344280917725</v>
+        <v>-0.2085137790817301</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.2384528905728052</v>
+        <v>0.9607596854587407</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8906542360209881</v>
+        <v>0.8800660835782965</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.9062880317025316</v>
+        <v>0.3757263348799337</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.46607359775706</v>
+        <v>0.8694321553627297</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.7932320103241101</v>
+        <v>0.864906548961225</v>
       </c>
       <c r="BW4" t="n">
-        <v>1</v>
+        <v>0.8825434195351449</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8959894574074369</v>
+        <v>-0.5149660382334331</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9888267190963508</v>
+        <v>-0.4262851050310676</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.8059427523731864</v>
+        <v>0.8463326650111551</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.96469590694966</v>
+        <v>0.966355290236123</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8939763840856408</v>
+        <v>0.9076583931217674</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.8490055171251311</v>
+        <v>0.8523646519252779</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.9486205819433908</v>
+        <v>0.4032234130964218</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.9130484699200478</v>
+        <v>0.5087070399637026</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.9523784393542937</v>
+        <v>0.8012555411701892</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8940715066237649</v>
+        <v>0.1652395108852582</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.6987045690329244</v>
+        <v>0.8206428157384243</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.8096932264933954</v>
+        <v>0.2954946557490835</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.9682267617516203</v>
+        <v>-0.4901538730558354</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8594353938031548</v>
+        <v>0.5030060862759388</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.9210863407471926</v>
+        <v>-0.5176584839799497</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6543400837231108</v>
+        <v>0.4187307032847434</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6317570619879348</v>
+        <v>0.9648026596477388</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7494821591487941</v>
+        <v>-0.4145613408491942</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7684330968810678</v>
+        <v>0.9374080046954166</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7987008376282331</v>
+        <v>0.9608968710908087</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.6923242120693637</v>
+        <v>-0.5737960881777349</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1661332981838292</v>
+        <v>0.934461983921055</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.7126607446472499</v>
+        <v>0.395878554739118</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1554307021892065</v>
+        <v>0.8775679761422567</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.7278346380949599</v>
+        <v>0.8399695013137636</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9704851125078916</v>
+        <v>0.8525235642049465</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1750486273182476</v>
+        <v>0.8849975664901562</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.9206269315434316</v>
+        <v>-0.7455209058076766</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9819627842742228</v>
+        <v>0.8218406376425531</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3530846399040064</v>
+        <v>0.8381295031840544</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9589637228449762</v>
+        <v>0.9207126984641441</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.3010729213598903</v>
+        <v>0.4720789618307604</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8962909076598542</v>
+        <v>0.5156934481253715</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9053919941695873</v>
+        <v>0.6954118942933855</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8810539941274993</v>
+        <v>0.424459451176546</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9483530706788225</v>
+        <v>0.8817539124217242</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6089688755645293</v>
+        <v>-0.4065768092930215</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7512480947427823</v>
+        <v>0.6893042097766882</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.8002288607524253</v>
+        <v>-0.6860427461832052</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9401666654649167</v>
+        <v>0.3468609840043732</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.5546717891276559</v>
+        <v>-0.8275975545322861</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.6883896193196971</v>
+        <v>-0.9667723558926665</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7550992921430929</v>
+        <v>0.739838661354572</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.08873082041148277</v>
+        <v>0.2817564196924214</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8844880937690692</v>
+        <v>-0.5447454263505398</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8601306122633431</v>
+        <v>0.9648026596477388</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.809110687203741</v>
+        <v>0.9598040106157502</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1941173073536084</v>
+        <v>0.9656044106666164</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7207321919117801</v>
+        <v>0.8139493436909858</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.841856753284689</v>
+        <v>0.9277332641329396</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4399287802201481</v>
+        <v>0.6502721110708685</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.4913165481865394</v>
+        <v>0.6905856580585775</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.9488893829284268</v>
+        <v>-0.897100755585043</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.8236651936590723</v>
+        <v>0.9897640509285014</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9527872759992532</v>
+        <v>0.7729629894920287</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3000717967272785</v>
+        <v>0.9478526981419223</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5428645293029368</v>
+        <v>0.9572810473123863</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9658560561932249</v>
+        <v>0.5052106319169696</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9704851125078916</v>
+        <v>-0.6783578255835576</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.972422124591374</v>
+        <v>-0.1892202611013362</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.9745711423069124</v>
+        <v>0.1439056755082655</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.786522715055423</v>
+        <v>0.9022497289053709</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9485455248877064</v>
+        <v>0.9391893842755615</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5406280307440616</v>
+        <v>0.7498520177189842</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9336875389929776</v>
+        <v>0.8508889486604039</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.966837260680518</v>
+        <v>0.924043346722609</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9939663668482677</v>
+        <v>0.8405218914104507</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7227421183171566</v>
+        <v>0.7466247822886748</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9603990674805057</v>
+        <v>0.871013530966782</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9560881167986066</v>
+        <v>-0.9660200051192284</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5463330903780321</v>
+        <v>0.944928962372989</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.8545229308035138</v>
+        <v>0.1257403116013311</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.6945012610386959</v>
+        <v>0.8964101357988125</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1695260821749205</v>
+        <v>-0.8815861854371934</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.9345821193379948</v>
+        <v>-0.9071452336416008</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9509859225436861</v>
+        <v>-0.944103612269484</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.689447946879063</v>
+        <v>0.7249427755254992</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8541557590016733</v>
+        <v>0.7931273643161274</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9341132230556359</v>
+        <v>0.8313447775241819</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8559431707669453</v>
+        <v>-0.5792288200214</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8191568464419886</v>
+        <v>0.7478210593883143</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8706518823368714</v>
+        <v>0.5563568559146898</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9671358899928054</v>
+        <v>-0.8176094815011753</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9571467247775511</v>
+        <v>-0.2292650139921047</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1232324874953912</v>
+        <v>0.8149916063022858</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.90129488938047</v>
+        <v>0.8159502591527971</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8766993851539666</v>
+        <v>0.3035431610134361</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9185464799332701</v>
+        <v>-0.6985037216228743</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9597584808936011</v>
+        <v>0.6785040773318507</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7192522144638519</v>
+        <v>-0.2444512050277904</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7934023207968742</v>
+        <v>-0.0375176613475323</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8988602091110021</v>
+        <v>-0.5038994575249665</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9718395226163795</v>
+        <v>0.2211989641431942</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.5406366173226851</v>
+        <v>0.9514442212477456</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.9048879933553734</v>
+        <v>0.8573515991447382</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.8540443190045136</v>
+        <v>-0.6441600305260566</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.8920223557951346</v>
+        <v>-0.8822912333257716</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.535155544274723</v>
+        <v>0.9000251576033305</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9184560161363704</v>
+        <v>0.3991816475562097</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.8924024609146045</v>
+        <v>-0.4356376015527415</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.4561144286517292</v>
+        <v>0.8135198623762244</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.6758278974570485</v>
+        <v>0.9514442212477456</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8058107003460668</v>
+        <v>0.5095302357441773</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.06919569472616569</v>
+        <v>0.7766649808801783</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1852645357183798</v>
+        <v>0.7918684962705518</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4056514626167131</v>
+        <v>-0.2779618609440832</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.9168886241980995</v>
+        <v>-0.3748379754377775</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.7906894997055884</v>
+        <v>-0.8901621875939405</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3650388595313954</v>
+        <v>0.5033653592928057</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9642798529911449</v>
+        <v>0.6325906662746867</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8960902086600798</v>
+        <v>0.2587486830961919</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.5453561524533914</v>
+        <v>0.9009318202773489</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8992599934055614</v>
+        <v>0.9328839061521673</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.905458893186351</v>
+        <v>0.4440865555001829</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.5073889786831645</v>
+        <v>0.9372141669709024</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8953342534587644</v>
+        <v>-0.7480424466827513</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.7061271080363976</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.6912603295001453</v>
+        <v>0.09864570036384959</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9642798529911449</v>
+        <v>0.3154487714947374</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.6352253989475</v>
+        <v>0.9660285149175867</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8804072645354525</v>
+        <v>0.7555643865891866</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.7330051330031321</v>
+        <v>0.5628933008677584</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.8801473076625921</v>
+        <v>-0.3908721913590897</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.6987802078046104</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.3192040769092626</v>
+        <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.9182797000777601</v>
+        <v>0.6135162007730897</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.8049652874782418</v>
+        <v>0.6278214882412718</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.8396703365654743</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8047344820944274</v>
+        <v>0.3677975765907017</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7567551837766213</v>
+        <v>0.2671267070263139</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.401699370226643</v>
+        <v>0.5060349424500329</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9247105845801903</v>
+        <v>0.5009765809615173</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.9235667621542515</v>
+        <v>-0.5187097819023344</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3957873274553583</v>
+        <v>0.6504281708094638</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.9130501193187653</v>
+        <v>0.4784772873203784</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7779692682596342</v>
+        <v>-0.3544836424950234</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.8026674423931008</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3591251366297348</v>
+        <v>-0.249461350602922</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.2838080942891404</v>
+        <v>-0.6006171691025435</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9582893761815015</v>
+        <v>0.4565058410008435</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.8829917653960558</v>
+        <v>0.9695743553361907</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9061212526615865</v>
+        <v>-0.8522182712710308</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.6500760770723479</v>
+        <v>-0.3010032735020047</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.6171804482234864</v>
+        <v>0.8403417855319439</v>
       </c>
       <c r="HL4" t="n">
-        <v>0</v>
+        <v>0.5927226807122743</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>0.8451284920500338</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7474248408410944</v>
+        <v>-0.1524772923225473</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7238638820470855</v>
+        <v>-0.3202217342547156</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>-0.3719079167747278</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.3246685599071239</v>
+        <v>0.08395924021825628</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.522854905485807</v>
+        <v>-0.6040996677364485</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4374071788613561</v>
+        <v>0.9455807924649816</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7513747136385617</v>
+        <v>-0.3512232358891299</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5423078696092158</v>
+        <v>0.4481721086372474</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9276349385917713</v>
+        <v>0.2639356275757734</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9114989293958212</v>
+        <v>0.6083908952854448</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.9239673425960157</v>
+        <v>0.4874059090089089</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.4519933540252357</v>
+        <v>0.44842947213376</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8572631510230303</v>
+        <v>-0.4921732084834999</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6020863481918022</v>
+        <v>-0.4834704399899395</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.3852026936796154</v>
+        <v>-0.2669703905160825</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.7104814630515084</v>
+        <v>-0.7408065799956846</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.6449315858804607</v>
+        <v>-0.8621093252371802</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.3930932005285833</v>
+        <v>0.7376350896058552</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.7587031885366233</v>
+        <v>-0.08785242047696748</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9756989659081076</v>
+        <v>-0.7593142774148945</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7970549364204196</v>
+        <v>-0.6386853249479353</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4781281250844768</v>
+        <v>0.7376350896058552</v>
       </c>
       <c r="IJ4" t="n">
-        <v>0.426195635410247</v>
+        <v>0.6810573930912927</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.4094554029343399</v>
+        <v>-0.2354837013018536</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8662999553212848</v>
+        <v>0.3857783269668739</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.2306590017820943</v>
+        <v>-0.5600458384300493</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1462673651559107</v>
+        <v>-0.7132664736466157</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.4528726872334087</v>
+        <v>0.8916917172372699</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2561509081940376</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8036712776796531</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9561436691371724</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4205929334745974</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.7129945321007484</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.564913973533351</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.7808126707142221</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.783173057801382</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7416315142981709</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.542065835743209</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5400798408366422</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.101849685470173</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.6723704272394722</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.813239096906808</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.809258087420711</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2321539724905129</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8609575708831626</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5906001123162429</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.809258087420711</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8168809814826545</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.3687088674600436</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.373466330527135</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>-0.3374522361732345</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.8056821511981631</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9703651895469665</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.9101958182644301</v>
+        <v>0.8419998170744789</v>
       </c>
     </row>
   </sheetData>
